--- a/data/georgia_census/imereti/kutaisi/education_graduates.xlsx
+++ b/data/georgia_census/imereti/kutaisi/education_graduates.xlsx
@@ -1827,13 +1827,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7AC7F3-C8A2-4EEA-A613-70B353D7A3CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{574003E4-4B3B-4885-A203-F20B046D83AB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCAF3E3B-E5F3-4ED2-823A-0C43BCAFB8C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEBAF2B0-B9B5-405D-8CF2-A37CF18BB3D9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C08F0C-6F4D-4614-8C8E-B2B69DCB8949}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36DC481A-0D1A-4D96-AB2F-D8E7136BBA58}"/>
 </file>